--- a/result/tables_200429.xlsx
+++ b/result/tables_200429.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="5" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="TypeName_point" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="91">
   <si>
     <t>TypeName.1</t>
   </si>
@@ -297,6 +297,17 @@
   </si>
   <si>
     <t>TW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>County</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TW</t>
+  </si>
+  <si>
+    <t>各分區森林的面積</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +320,7 @@
     <numFmt numFmtId="177" formatCode="0.000"/>
     <numFmt numFmtId="178" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -332,6 +343,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,10 +368,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -373,9 +394,11 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1093,7 +1116,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" t="str">
-        <f t="shared" ref="C10:E13" si="0">ROUND(C3,1)&amp;" ± "&amp;ROUND(D3,1)</f>
+        <f t="shared" ref="C10:C13" si="0">ROUND(C3,1)&amp;" ± "&amp;ROUND(D3,1)</f>
         <v>18.5 ± 4.5</v>
       </c>
       <c r="F10" t="str">
@@ -1155,15 +1178,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="Y17" sqref="Y17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1230,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1253,7 +1276,7 @@
         <v>9.0459383150671542</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -1299,7 +1322,7 @@
         <v>0.56568542494923801</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -1363,7 +1386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1429,8 +1452,11 @@
       <c r="Y5" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AD5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1510,8 +1536,18 @@
         <f>Y6/0.1/0.1/PI()</f>
         <v>2.1693144190333025E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6">
+        <v>6167.5657119999996</v>
+      </c>
+      <c r="AF6" s="9">
+        <f>0.1*0.1*PI()*T6/AD6</f>
+        <v>2.8692992088012476E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1591,8 +1627,18 @@
         <f t="shared" ref="AA7:AA12" si="9">Y7/0.1/0.1/PI()</f>
         <v>3.5683963149268333E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD7">
+        <v>4177.9869639999997</v>
+      </c>
+      <c r="AF7" s="9">
+        <f t="shared" ref="AF7:AF12" si="10">0.1*0.1*PI()*T7/AD7</f>
+        <v>3.5574248967745977E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -1672,8 +1718,18 @@
         <f t="shared" si="9"/>
         <v>0.12592386612250164</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC8" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD8">
+        <v>1424.349935</v>
+      </c>
+      <c r="AF8" s="9">
+        <f t="shared" si="10"/>
+        <v>3.8378007278430776E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1753,8 +1809,18 @@
         <f t="shared" si="9"/>
         <v>0.11794799939524411</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC9" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD9">
+        <v>3236.5496349999999</v>
+      </c>
+      <c r="AF9" s="9">
+        <f t="shared" si="10"/>
+        <v>1.4773461117532547E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1834,8 +1900,18 @@
         <f t="shared" si="9"/>
         <v>0.15685504930704239</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD10">
+        <v>3674.9536549999998</v>
+      </c>
+      <c r="AF10" s="9">
+        <f t="shared" si="10"/>
+        <v>1.3771890042877718E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1915,8 +1991,18 @@
         <f t="shared" si="9"/>
         <v>0.40975249583183637</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC11" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD11">
+        <v>2854.7790019999998</v>
+      </c>
+      <c r="AF11" s="9">
+        <f t="shared" si="10"/>
+        <v>6.9879711656556419E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>39</v>
       </c>
@@ -1996,8 +2082,18 @@
         <f t="shared" si="9"/>
         <v>3.6280941809201973E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="AC12" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD12">
+        <v>21536.184902999998</v>
+      </c>
+      <c r="AF12" s="9">
+        <f t="shared" si="10"/>
+        <v>2.3153292387841275E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>39</v>
       </c>
@@ -2043,7 +2139,7 @@
         <v>1.2872754306953798E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -2089,7 +2185,7 @@
         <v>25.586344013946185</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2151,7 +2247,7 @@
         <v>0.084 ± 0.022</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2197,19 +2293,19 @@
         <v>6.8151022421614334E-4</v>
       </c>
       <c r="T16" t="str">
-        <f t="shared" ref="T16:V21" si="10">ROUND(T7,1)&amp;" ± "&amp;ROUND(U7,1)</f>
+        <f t="shared" ref="T16:V21" si="11">ROUND(T7,1)&amp;" ± "&amp;ROUND(U7,1)</f>
         <v>473.1 ± 9</v>
       </c>
       <c r="V16" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4 ± 0.6</v>
       </c>
       <c r="X16" t="str">
-        <f t="shared" ref="X16:Z21" si="11">ROUND(X7,3)&amp;" ± "&amp;ROUND(Y7,3)</f>
+        <f t="shared" ref="X16:Z21" si="12">ROUND(X7,3)&amp;" ± "&amp;ROUND(Y7,3)</f>
         <v>0.008 ± 0.001</v>
       </c>
       <c r="Z16" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.267 ± 0.036</v>
       </c>
     </row>
@@ -2259,19 +2355,19 @@
         <v>4.6600429182572984</v>
       </c>
       <c r="T17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>174 ± 5.8</v>
       </c>
       <c r="V17" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.6 ± 0.6</v>
       </c>
       <c r="X17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.027 ± 0.004</v>
       </c>
       <c r="Z17" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.871 ± 0.126</v>
       </c>
     </row>
@@ -2321,19 +2417,19 @@
         <v>0.47853944456021591</v>
       </c>
       <c r="T18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>152.2 ± 4.7</v>
       </c>
       <c r="V18" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1 ± 0.5</v>
       </c>
       <c r="X18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.021 ± 0.004</v>
       </c>
       <c r="Z18" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.674 ± 0.118</v>
       </c>
     </row>
@@ -2383,19 +2479,19 @@
         <v>3.7054456840571229E-3</v>
       </c>
       <c r="T19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>161.1 ± 2.9</v>
       </c>
       <c r="V19" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.3 ± 0.7</v>
       </c>
       <c r="X19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.04 ± 0.005</v>
       </c>
       <c r="Z19" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.257 ± 0.157</v>
       </c>
     </row>
@@ -2411,47 +2507,47 @@
         <v>1717</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:L21" si="12">SUMIF($B$1:$B$19,$B20,D$1:D$19)</f>
+        <f t="shared" ref="D20:L21" si="13">SUMIF($B$1:$B$19,$B20,D$1:D$19)</f>
         <v>1633</v>
       </c>
       <c r="E20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1703</v>
       </c>
       <c r="F20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1557</v>
       </c>
       <c r="G20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1526</v>
       </c>
       <c r="H20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1461</v>
       </c>
       <c r="I20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1670</v>
       </c>
       <c r="J20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1540</v>
       </c>
       <c r="K20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1567</v>
       </c>
       <c r="L20">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1498</v>
       </c>
       <c r="M20">
-        <f t="shared" ref="M20:M22" si="13">AVERAGE(C20:L20)</f>
+        <f t="shared" ref="M20:M22" si="14">AVERAGE(C20:L20)</f>
         <v>1587.2</v>
       </c>
       <c r="N20" s="3">
-        <f t="shared" ref="N20:N22" si="14">_xlfn.STDEV.P(C20:L20)/SQRT(10)</f>
+        <f t="shared" ref="N20:N22" si="15">_xlfn.STDEV.P(C20:L20)/SQRT(10)</f>
         <v>26.530661507018625</v>
       </c>
       <c r="T20" t="str">
@@ -2463,11 +2559,11 @@
         <v>3 ± 1</v>
       </c>
       <c r="X20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.042 ± 0.013</v>
       </c>
       <c r="Z20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.327 ± 0.41</v>
       </c>
     </row>
@@ -2483,63 +2579,63 @@
         <v>21</v>
       </c>
       <c r="D21">
+        <f t="shared" si="13"/>
+        <v>22</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="13"/>
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="13"/>
+        <v>23</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="13"/>
+        <v>18</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="13"/>
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="14"/>
+        <v>22.5</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="15"/>
+        <v>1.7392527130926085</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="11"/>
+        <v>1587.2 ± 26.5</v>
+      </c>
+      <c r="V21" t="str">
+        <f t="shared" si="11"/>
+        <v>22.5 ± 1.7</v>
+      </c>
+      <c r="X21" t="str">
         <f t="shared" si="12"/>
-        <v>22</v>
-      </c>
-      <c r="E21">
+        <v>0.014 ± 0.001</v>
+      </c>
+      <c r="Z21" t="str">
         <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="12"/>
-        <v>23</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="12"/>
-        <v>18</v>
-      </c>
-      <c r="I21">
-        <f t="shared" si="12"/>
-        <v>27</v>
-      </c>
-      <c r="J21">
-        <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="12"/>
-        <v>30</v>
-      </c>
-      <c r="L21">
-        <f t="shared" si="12"/>
-        <v>24</v>
-      </c>
-      <c r="M21">
-        <f t="shared" si="13"/>
-        <v>22.5</v>
-      </c>
-      <c r="N21" s="3">
-        <f t="shared" si="14"/>
-        <v>1.7392527130926085</v>
-      </c>
-      <c r="T21" t="str">
-        <f t="shared" si="10"/>
-        <v>1587.2 ± 26.5</v>
-      </c>
-      <c r="V21" t="str">
-        <f t="shared" si="10"/>
-        <v>22.5 ± 1.7</v>
-      </c>
-      <c r="X21" t="str">
-        <f t="shared" si="11"/>
-        <v>0.014 ± 0.001</v>
-      </c>
-      <c r="Z21" t="str">
-        <f t="shared" si="11"/>
         <v>0.453 ± 0.036</v>
       </c>
     </row>
@@ -2555,47 +2651,47 @@
         <v>1.2230634828188701E-2</v>
       </c>
       <c r="D22">
-        <f t="shared" ref="D22:L22" si="15">D21/D20</f>
+        <f t="shared" ref="D22:L22" si="16">D21/D20</f>
         <v>1.3472137170851195E-2</v>
       </c>
       <c r="E22">
+        <f t="shared" si="16"/>
+        <v>8.2207868467410444E-3</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="16"/>
+        <v>1.4771997430956968E-2</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="16"/>
+        <v>9.8296199213630409E-3</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="16"/>
+        <v>1.2320328542094456E-2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="16"/>
+        <v>1.6167664670658683E-2</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="16"/>
+        <v>2.012987012987013E-2</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="16"/>
+        <v>1.9144862795149969E-2</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="16"/>
+        <v>1.602136181575434E-2</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="14"/>
+        <v>1.423092641516285E-2</v>
+      </c>
+      <c r="N22" s="3">
         <f t="shared" si="15"/>
-        <v>8.2207868467410444E-3</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="15"/>
-        <v>1.4771997430956968E-2</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="15"/>
-        <v>9.8296199213630409E-3</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="15"/>
-        <v>1.2320328542094456E-2</v>
-      </c>
-      <c r="I22">
-        <f t="shared" si="15"/>
-        <v>1.6167664670658683E-2</v>
-      </c>
-      <c r="J22">
-        <f t="shared" si="15"/>
-        <v>2.012987012987013E-2</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="15"/>
-        <v>1.9144862795149969E-2</v>
-      </c>
-      <c r="L22">
-        <f t="shared" si="15"/>
-        <v>1.602136181575434E-2</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="13"/>
-        <v>1.423092641516285E-2</v>
-      </c>
-      <c r="N22" s="3">
-        <f t="shared" si="14"/>
         <v>1.1397994025310772E-3</v>
       </c>
     </row>
@@ -2612,7 +2708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -4828,15 +4926,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>62</v>
@@ -5397,6 +5497,68 @@
       </c>
       <c r="P14">
         <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <f>SUM(B2:B14)</f>
+        <v>44</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:P15" si="0">SUM(C2:C14)</f>
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="0"/>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -7056,8 +7218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="AE23" sqref="AE23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8098,7 +8260,7 @@
         <v>0.014 ± 0.001</v>
       </c>
       <c r="Y16" t="str">
-        <f t="shared" ref="Y16:Y20" si="13">ROUND(Y7,3)&amp;" ± "&amp;ROUND(Z7,3)</f>
+        <f t="shared" ref="Y16:Y19" si="13">ROUND(Y7,3)&amp;" ± "&amp;ROUND(Z7,3)</f>
         <v>0.449 ± 0.036</v>
       </c>
     </row>

--- a/result/tables_200429.xlsx
+++ b/result/tables_200429.xlsx
@@ -1180,8 +1180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
